--- a/data/trans_bre/IP16A98-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Estudios-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 9,66</t>
+          <t>-31,28; 8,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 32,3</t>
+          <t>-26,07; 29,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 56,89</t>
+          <t>-10,4; 61,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-84,32; 109,44</t>
+          <t>-82,42; 83,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,71; 979,91</t>
+          <t>-67,07; 1344,44</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 8,18</t>
+          <t>-9,58; 6,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 5,86</t>
+          <t>-13,82; 5,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 6,38</t>
+          <t>-13,75; 7,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 73,9</t>
+          <t>-52,16; 67,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 38,21</t>
+          <t>-53,08; 36,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 43,22</t>
+          <t>-52,07; 52,87</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 5,55</t>
+          <t>-19,17; 5,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 11,98</t>
+          <t>-20,74; 10,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 16,88</t>
+          <t>-10,11; 17,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-88,84; 99,37</t>
+          <t>-86,26; 120,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,35; 139,62</t>
+          <t>-78,38; 125,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,86; 239,36</t>
+          <t>-52,16; 255,59</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 3,01</t>
+          <t>-10,52; 3,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 4,78</t>
+          <t>-10,97; 4,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 8,87</t>
+          <t>-8,42; 9,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,76; 25,4</t>
+          <t>-53,25; 27,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 30,44</t>
+          <t>-45,53; 31,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 61,92</t>
+          <t>-35,9; 63,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A98-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>33,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>104,86%</t>
+          <t>193,26%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 8,81</t>
+          <t>-32,88; 9,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 29,94</t>
+          <t>-25,68; 31,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 61,75</t>
+          <t>-6,86; 74,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-82,42; 83,75</t>
+          <t>-85,78; 90,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-85,49; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-67,07; 1344,44</t>
+          <t>-44,64; —</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,59%</t>
+          <t>-29,26%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 6,75</t>
+          <t>-9,37; 7,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 5,91</t>
+          <t>-14,1; 5,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 7,37</t>
+          <t>-19,76; 3,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,16; 67,88</t>
+          <t>-51,33; 71,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 36,59</t>
+          <t>-54,43; 36,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,07; 52,87</t>
+          <t>-70,09; 22,14</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>33,66%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 5,14</t>
+          <t>-17,33; 6,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 10,48</t>
+          <t>-21,46; 10,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 17,8</t>
+          <t>-10,15; 18,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-86,26; 120,19</t>
+          <t>-87,55; 134,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 125,92</t>
+          <t>-80,15; 127,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,16; 255,59</t>
+          <t>-48,46; 290,73</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 3,33</t>
+          <t>-9,31; 3,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 4,67</t>
+          <t>-12,21; 4,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 9,01</t>
+          <t>-11,67; 9,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,25; 27,3</t>
+          <t>-50,93; 31,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 31,56</t>
+          <t>-49,56; 26,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 63,14</t>
+          <t>-49,2; 64,24</t>
         </is>
       </c>
     </row>
